--- a/Datasets/AIBA.xlsx
+++ b/Datasets/AIBA.xlsx
@@ -5,25 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salun\OneDrive\Desktop\Study\Sem IV\DIS\Project\CourseReview\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divya\OneDrive\Desktop\DIS\CourseReview\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62596256-72C9-4ACF-A2D5-2A389EE64612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C6F5D7-AD42-42EA-B806-253044A0C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Courses" sheetId="1" r:id="rId1"/>
+    <sheet name="Professor" sheetId="2" r:id="rId2"/>
+    <sheet name="Department" sheetId="4" r:id="rId3"/>
+    <sheet name="Students" sheetId="3" r:id="rId4"/>
+    <sheet name="reviews" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Courses!$C$1:$C$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Professor!$A$1:$A$39</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="185">
   <si>
     <t>CRN</t>
   </si>
@@ -37,9 +42,6 @@
     <t>Instructor</t>
   </si>
   <si>
-    <t>Campus</t>
-  </si>
-  <si>
     <t>Management Information Systems</t>
   </si>
   <si>
@@ -130,9 +132,6 @@
     <t>W. Jank (P)</t>
   </si>
   <si>
-    <t>Tampa</t>
-  </si>
-  <si>
     <t>Advanced Systems Analysis &amp; Design</t>
   </si>
   <si>
@@ -158,13 +157,490 @@
   </si>
   <si>
     <t>T. Ma (P)</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>AIBA</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>abhatta@usf.edu</t>
+  </si>
+  <si>
+    <t>amusmar@usf.edu</t>
+  </si>
+  <si>
+    <t>cdaniel@usf.edu</t>
+  </si>
+  <si>
+    <t>hhyman@usf.edu</t>
+  </si>
+  <si>
+    <t>mgreen@usf.edu</t>
+  </si>
+  <si>
+    <t>magrawal@usf.edu</t>
+  </si>
+  <si>
+    <t>tsmith@usf.edu</t>
+  </si>
+  <si>
+    <t>kdutta@usf.edu</t>
+  </si>
+  <si>
+    <t>wjank@usf.edu</t>
+  </si>
+  <si>
+    <t>kgarimella@usf.edu</t>
+  </si>
+  <si>
+    <t>aray@usf.edu</t>
+  </si>
+  <si>
+    <t>vkayhan@usf.edu</t>
+  </si>
+  <si>
+    <t>tma1@usf.edu</t>
+  </si>
+  <si>
+    <t>jreichgelt@usf.edu</t>
+  </si>
+  <si>
+    <t>dberndt@usf.edu</t>
+  </si>
+  <si>
+    <t>tma2@usf.edu</t>
+  </si>
+  <si>
+    <t>tstablein@usf.edu</t>
+  </si>
+  <si>
+    <t>mebrahimi@usf.edu</t>
+  </si>
+  <si>
+    <t>dyin@usf.edu</t>
+  </si>
+  <si>
+    <t>wmcnair@usf.edu</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Emily Tran</t>
+  </si>
+  <si>
+    <t>etran@usf.edu</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>Jacob Lee</t>
+  </si>
+  <si>
+    <t>jlee@usf.edu</t>
+  </si>
+  <si>
+    <t>Sarah Patel</t>
+  </si>
+  <si>
+    <t>spatel@usf.edu</t>
+  </si>
+  <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>Michael Rivera</t>
+  </si>
+  <si>
+    <t>mrivera@usf.edu</t>
+  </si>
+  <si>
+    <t>Olivia Chen</t>
+  </si>
+  <si>
+    <t>ochen@usf.edu</t>
+  </si>
+  <si>
+    <t>Daniel Scott</t>
+  </si>
+  <si>
+    <t>dscott@usf.edu</t>
+  </si>
+  <si>
+    <t>Jessica Nguyen</t>
+  </si>
+  <si>
+    <t>jnguyen@usf.edu</t>
+  </si>
+  <si>
+    <t>Kevin Brown</t>
+  </si>
+  <si>
+    <t>kbrown@usf.edu</t>
+  </si>
+  <si>
+    <t>Sophia Gonzalez</t>
+  </si>
+  <si>
+    <t>sgonzalez@usf.edu</t>
+  </si>
+  <si>
+    <t>Anthony King</t>
+  </si>
+  <si>
+    <t>aking@usf.edu</t>
+  </si>
+  <si>
+    <t>Rachel Kim</t>
+  </si>
+  <si>
+    <t>rkim@usf.edu</t>
+  </si>
+  <si>
+    <t>Joshua Martin</t>
+  </si>
+  <si>
+    <t>jmartin@usf.edu</t>
+  </si>
+  <si>
+    <t>Lily Wright</t>
+  </si>
+  <si>
+    <t>lwright@usf.edu</t>
+  </si>
+  <si>
+    <t>Aaron Clark</t>
+  </si>
+  <si>
+    <t>aclark@usf.edu</t>
+  </si>
+  <si>
+    <t>Chloe Hernandez</t>
+  </si>
+  <si>
+    <t>chernandez@usf.edu</t>
+  </si>
+  <si>
+    <t>Ryan Carter</t>
+  </si>
+  <si>
+    <t>rcarter@usf.edu</t>
+  </si>
+  <si>
+    <t>Megan Diaz</t>
+  </si>
+  <si>
+    <t>mdiaz@usf.edu</t>
+  </si>
+  <si>
+    <t>Ethan Hall</t>
+  </si>
+  <si>
+    <t>ehall@usf.edu</t>
+  </si>
+  <si>
+    <t>Natalie Baker</t>
+  </si>
+  <si>
+    <t>nbaker@usf.edu</t>
+  </si>
+  <si>
+    <t>Lucas Rogers</t>
+  </si>
+  <si>
+    <t>lrogers@usf.edu</t>
+  </si>
+  <si>
+    <t>Department id</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>BMS</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence and Big Data Analytics</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>Electrical Engineering</t>
+  </si>
+  <si>
+    <t>Business Administration</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Biomedical Sciences</t>
+  </si>
+  <si>
+    <r>
+      <t>Computer Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Civil Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Environmental Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Information Technology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>dept code</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Overall Rating</t>
+  </si>
+  <si>
+    <t>Difficulty Level</t>
+  </si>
+  <si>
+    <t>IT210</t>
+  </si>
+  <si>
+    <t>W. McNair</t>
+  </si>
+  <si>
+    <t>ML300</t>
+  </si>
+  <si>
+    <t>Isabella Hughes</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>K. Dutta</t>
+  </si>
+  <si>
+    <t>EE201</t>
+  </si>
+  <si>
+    <t>CS101</t>
+  </si>
+  <si>
+    <t>D. Berndt</t>
+  </si>
+  <si>
+    <t>MECH200</t>
+  </si>
+  <si>
+    <t>J. Reichgelt</t>
+  </si>
+  <si>
+    <t>Jackson Adams</t>
+  </si>
+  <si>
+    <t>T. Smith</t>
+  </si>
+  <si>
+    <t>ENV150</t>
+  </si>
+  <si>
+    <t>Omar Khan</t>
+  </si>
+  <si>
+    <t>M. Agrawal</t>
+  </si>
+  <si>
+    <t>M. Ebrahimi</t>
+  </si>
+  <si>
+    <t>Mason Perry</t>
+  </si>
+  <si>
+    <t>Anna Price</t>
+  </si>
+  <si>
+    <t>PSY102</t>
+  </si>
+  <si>
+    <t>James Murphy</t>
+  </si>
+  <si>
+    <t>Zoe Brooks</t>
+  </si>
+  <si>
+    <t>Grace Turner</t>
+  </si>
+  <si>
+    <t>H. Hyman</t>
+  </si>
+  <si>
+    <t>Justin Foster</t>
+  </si>
+  <si>
+    <t>C. Daniel</t>
+  </si>
+  <si>
+    <t>Tyler Wood</t>
+  </si>
+  <si>
+    <t>Victoria Ortiz</t>
+  </si>
+  <si>
+    <t>BA101</t>
+  </si>
+  <si>
+    <t>BMS310</t>
+  </si>
+  <si>
+    <t>Emma Fox</t>
+  </si>
+  <si>
+    <t>Kyle Rivera</t>
+  </si>
+  <si>
+    <t>Amelia Johnson</t>
+  </si>
+  <si>
+    <t>Sophia Foster</t>
+  </si>
+  <si>
+    <t>Rebecca Moore</t>
+  </si>
+  <si>
+    <t>DSA200</t>
+  </si>
+  <si>
+    <t>Evelyn Reyes</t>
+  </si>
+  <si>
+    <t>Brian Howard</t>
+  </si>
+  <si>
+    <t>Daniel Torres</t>
+  </si>
+  <si>
+    <t>Caleb Powell</t>
+  </si>
+  <si>
+    <t>Alexa Evans</t>
+  </si>
+  <si>
+    <t>Nathan Edwards</t>
+  </si>
+  <si>
+    <t>Christopher Allen</t>
+  </si>
+  <si>
+    <t>Brandon Carter</t>
+  </si>
+  <si>
+    <t>Ava Clark</t>
+  </si>
+  <si>
+    <t>Logan Smith</t>
+  </si>
+  <si>
+    <t>Hailey Rivera</t>
+  </si>
+  <si>
+    <t>Dylan Stewart</t>
+  </si>
+  <si>
+    <t>Maya Gonzalez</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +662,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +686,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,18 +709,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -534,17 +1049,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="34.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,14 +1069,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>96279</v>
       </c>
@@ -569,16 +1082,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>86669</v>
       </c>
@@ -586,16 +1096,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>86675</v>
       </c>
@@ -603,16 +1110,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>86674</v>
       </c>
@@ -620,16 +1124,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12063</v>
       </c>
@@ -637,16 +1138,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>86832</v>
       </c>
@@ -654,16 +1152,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>86833</v>
       </c>
@@ -671,16 +1166,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>86692</v>
       </c>
@@ -688,16 +1180,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>96533</v>
       </c>
@@ -705,16 +1194,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>94277</v>
       </c>
@@ -722,16 +1208,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>86908</v>
       </c>
@@ -739,16 +1222,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>86909</v>
       </c>
@@ -756,16 +1236,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>87133</v>
       </c>
@@ -773,16 +1250,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>87134</v>
       </c>
@@ -790,16 +1264,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>87128</v>
       </c>
@@ -807,16 +1278,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>87991</v>
       </c>
@@ -824,16 +1292,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>86694</v>
       </c>
@@ -841,16 +1306,13 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>12065</v>
       </c>
@@ -858,16 +1320,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17376</v>
       </c>
@@ -875,16 +1334,13 @@
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>12096</v>
       </c>
@@ -892,16 +1348,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12097</v>
       </c>
@@ -909,16 +1362,13 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>12402</v>
       </c>
@@ -926,16 +1376,13 @@
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>87700</v>
       </c>
@@ -943,16 +1390,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>86881</v>
       </c>
@@ -960,16 +1404,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14372</v>
       </c>
@@ -977,16 +1418,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>96285</v>
       </c>
@@ -994,16 +1432,13 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>86894</v>
       </c>
@@ -1011,16 +1446,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>86896</v>
       </c>
@@ -1028,16 +1460,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>95365</v>
       </c>
@@ -1045,16 +1474,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>96072</v>
       </c>
@@ -1062,16 +1488,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>96280</v>
       </c>
@@ -1079,16 +1502,13 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>96281</v>
       </c>
@@ -1096,16 +1516,13 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>96282</v>
       </c>
@@ -1113,16 +1530,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>87138</v>
       </c>
@@ -1130,16 +1544,13 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>93955</v>
       </c>
@@ -1147,16 +1558,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>86846</v>
       </c>
@@ -1164,16 +1572,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>93705</v>
       </c>
@@ -1181,16 +1586,13 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>96286</v>
       </c>
@@ -1198,13 +1600,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1216,4 +1615,4166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9432B146-E482-490A-8BEF-6E324FBE92CD}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CAA7B9FC-C737-40D2-A01B-090E39802195}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{E52BE5B6-4012-40F4-936E-BB9E003D5F6E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{77F4A885-A959-4F60-904B-E3520BB1F719}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E20563DF-0610-4BFA-A635-7071FBFB8BE6}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{19CAA7A0-B387-4B7D-A520-E30FDDF1D474}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{B2B9EB4D-085A-4106-8174-767D1AA5CB40}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{D5E43AF5-5AFA-48DE-BCD0-C691CC6426F9}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{144EA302-4881-47B0-AF27-EDA5A7AD8394}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{CD6C6752-D805-4B7E-95D2-CC8CE408F3B1}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{63DCF549-64AC-44D9-8C30-E9CDF877C254}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{02A8D894-513D-4DB5-A1D6-AE8C0D3AEE57}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{CF7CC120-6F0D-46A6-A3E6-64850D99793D}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{2852FDB3-4A0D-4987-AE14-7492CFBB2A85}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{1583342A-5940-4330-A2E2-70E3B74D8D09}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{0C05686F-8F7C-4117-9475-443E56FFE093}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{AA6D0218-98C0-41BD-838C-BADB64B3CD00}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{4DFD0F40-0A41-4588-BDD1-CA9EF09842DD}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{5A2ECAAD-6531-4A6F-94B0-3D13C7A8E202}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{8414FD55-7A79-4430-9AD0-ED515B2C9EA8}"/>
+    <hyperlink ref="B2" r:id="rId20" xr:uid="{F4D3CE24-FC1F-4FC2-A9FC-3486E3F60D75}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFBAF31-3443-4BD2-B510-5A790D7E7A45}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="50.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05B5BAB-4434-4CBF-8971-7384123EF218}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB56338-5F54-4401-B731-87032D4D5AB0}">
+  <dimension ref="A1:G151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>43152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8">
+        <v>44349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>45152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>44520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8">
+        <v>44183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>45471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="7">
+        <v>5</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="7">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>43909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>45299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="8">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="8">
+        <v>43481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5</v>
+      </c>
+      <c r="G28" s="8">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="7">
+        <v>4</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="7">
+        <v>4</v>
+      </c>
+      <c r="F30" s="7">
+        <v>5</v>
+      </c>
+      <c r="G30" s="8">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" s="7">
+        <v>4</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="7">
+        <v>4</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="8">
+        <v>43086</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="8">
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8">
+        <v>45201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="7">
+        <v>4</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="8">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>45073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>3</v>
+      </c>
+      <c r="G37" s="8">
+        <v>43352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>5</v>
+      </c>
+      <c r="G38" s="8">
+        <v>44025</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5</v>
+      </c>
+      <c r="F39" s="7">
+        <v>3</v>
+      </c>
+      <c r="G39" s="8">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>3</v>
+      </c>
+      <c r="G40" s="8">
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5</v>
+      </c>
+      <c r="G41" s="8">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4</v>
+      </c>
+      <c r="F42" s="7">
+        <v>5</v>
+      </c>
+      <c r="G42" s="8">
+        <v>43727</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="7">
+        <v>4</v>
+      </c>
+      <c r="F43" s="7">
+        <v>4</v>
+      </c>
+      <c r="G43" s="8">
+        <v>44521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>2</v>
+      </c>
+      <c r="G44" s="8">
+        <v>45542</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="7">
+        <v>4</v>
+      </c>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="8">
+        <v>43956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="7">
+        <v>4</v>
+      </c>
+      <c r="F46" s="7">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="7">
+        <v>4</v>
+      </c>
+      <c r="F47" s="7">
+        <v>4</v>
+      </c>
+      <c r="G47" s="8">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="7">
+        <v>4</v>
+      </c>
+      <c r="F48" s="7">
+        <v>4</v>
+      </c>
+      <c r="G48" s="8">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>3</v>
+      </c>
+      <c r="G49" s="8">
+        <v>43158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="7">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7">
+        <v>5</v>
+      </c>
+      <c r="G50" s="8">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="7">
+        <v>2</v>
+      </c>
+      <c r="F51" s="7">
+        <v>2</v>
+      </c>
+      <c r="G51" s="8">
+        <v>44716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="7">
+        <v>1</v>
+      </c>
+      <c r="F52" s="7">
+        <v>1</v>
+      </c>
+      <c r="G52" s="8">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="7">
+        <v>5</v>
+      </c>
+      <c r="G53" s="8">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="7">
+        <v>2</v>
+      </c>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="8">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="7">
+        <v>3</v>
+      </c>
+      <c r="F55" s="7">
+        <v>2</v>
+      </c>
+      <c r="G55" s="8">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="7">
+        <v>5</v>
+      </c>
+      <c r="F56" s="7">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
+      <c r="F57" s="7">
+        <v>1</v>
+      </c>
+      <c r="G57" s="8">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="7">
+        <v>5</v>
+      </c>
+      <c r="F58" s="7">
+        <v>2</v>
+      </c>
+      <c r="G58" s="8">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" s="7">
+        <v>3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="7">
+        <v>4</v>
+      </c>
+      <c r="F60" s="7">
+        <v>2</v>
+      </c>
+      <c r="G60" s="8">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="7">
+        <v>4</v>
+      </c>
+      <c r="F61" s="7">
+        <v>2</v>
+      </c>
+      <c r="G61" s="8">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="7">
+        <v>3</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1</v>
+      </c>
+      <c r="G62" s="8">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="7">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7">
+        <v>4</v>
+      </c>
+      <c r="G63" s="8">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="7">
+        <v>5</v>
+      </c>
+      <c r="F64" s="7">
+        <v>4</v>
+      </c>
+      <c r="G64" s="8">
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7">
+        <v>2</v>
+      </c>
+      <c r="G65" s="8">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="7">
+        <v>3</v>
+      </c>
+      <c r="F66" s="7">
+        <v>5</v>
+      </c>
+      <c r="G66" s="8">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="7">
+        <v>3</v>
+      </c>
+      <c r="F67" s="7">
+        <v>5</v>
+      </c>
+      <c r="G67" s="8">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="7">
+        <v>5</v>
+      </c>
+      <c r="F68" s="7">
+        <v>5</v>
+      </c>
+      <c r="G68" s="8">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="7">
+        <v>1</v>
+      </c>
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="7">
+        <v>5</v>
+      </c>
+      <c r="F70" s="7">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8">
+        <v>43741</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="7">
+        <v>3</v>
+      </c>
+      <c r="F71" s="7">
+        <v>5</v>
+      </c>
+      <c r="G71" s="8">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="7">
+        <v>3</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2</v>
+      </c>
+      <c r="G72" s="8">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="7">
+        <v>5</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2</v>
+      </c>
+      <c r="G73" s="8">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="7">
+        <v>2</v>
+      </c>
+      <c r="F74" s="7">
+        <v>4</v>
+      </c>
+      <c r="G74" s="8">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" s="7">
+        <v>1</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1</v>
+      </c>
+      <c r="G75" s="8">
+        <v>43427</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="7">
+        <v>2</v>
+      </c>
+      <c r="G76" s="8">
+        <v>43695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1</v>
+      </c>
+      <c r="F77" s="7">
+        <v>1</v>
+      </c>
+      <c r="G77" s="8">
+        <v>43296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" s="7">
+        <v>1</v>
+      </c>
+      <c r="F78" s="7">
+        <v>2</v>
+      </c>
+      <c r="G78" s="8">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E79" s="7">
+        <v>4</v>
+      </c>
+      <c r="F79" s="7">
+        <v>4</v>
+      </c>
+      <c r="G79" s="8">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E80" s="7">
+        <v>5</v>
+      </c>
+      <c r="F80" s="7">
+        <v>3</v>
+      </c>
+      <c r="G80" s="8">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+      <c r="F81" s="7">
+        <v>1</v>
+      </c>
+      <c r="G81" s="8">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="7">
+        <v>3</v>
+      </c>
+      <c r="F82" s="7">
+        <v>5</v>
+      </c>
+      <c r="G82" s="8">
+        <v>43342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="7">
+        <v>2</v>
+      </c>
+      <c r="F83" s="7">
+        <v>4</v>
+      </c>
+      <c r="G83" s="8">
+        <v>44806</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="7">
+        <v>3</v>
+      </c>
+      <c r="F84" s="7">
+        <v>5</v>
+      </c>
+      <c r="G84" s="8">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" s="7">
+        <v>4</v>
+      </c>
+      <c r="F85" s="7">
+        <v>1</v>
+      </c>
+      <c r="G85" s="8">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="7">
+        <v>2</v>
+      </c>
+      <c r="F86" s="7">
+        <v>3</v>
+      </c>
+      <c r="G86" s="8">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="7">
+        <v>4</v>
+      </c>
+      <c r="F87" s="7">
+        <v>5</v>
+      </c>
+      <c r="G87" s="8">
+        <v>44929</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E88" s="7">
+        <v>5</v>
+      </c>
+      <c r="F88" s="7">
+        <v>2</v>
+      </c>
+      <c r="G88" s="8">
+        <v>44947</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="7">
+        <v>5</v>
+      </c>
+      <c r="F89" s="7">
+        <v>5</v>
+      </c>
+      <c r="G89" s="8">
+        <v>43716</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="7">
+        <v>2</v>
+      </c>
+      <c r="F90" s="7">
+        <v>2</v>
+      </c>
+      <c r="G90" s="8">
+        <v>43125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7">
+        <v>2</v>
+      </c>
+      <c r="G91" s="8">
+        <v>45132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7">
+        <v>4</v>
+      </c>
+      <c r="G92" s="8">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E93" s="7">
+        <v>2</v>
+      </c>
+      <c r="F93" s="7">
+        <v>4</v>
+      </c>
+      <c r="G93" s="8">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>2</v>
+      </c>
+      <c r="G94" s="8">
+        <v>45146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7">
+        <v>2</v>
+      </c>
+      <c r="G95" s="8">
+        <v>43447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7">
+        <v>1</v>
+      </c>
+      <c r="G96" s="8">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7">
+        <v>2</v>
+      </c>
+      <c r="G97" s="8">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E98" s="7">
+        <v>3</v>
+      </c>
+      <c r="F98" s="7">
+        <v>5</v>
+      </c>
+      <c r="G98" s="8">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E99" s="7">
+        <v>2</v>
+      </c>
+      <c r="F99" s="7">
+        <v>5</v>
+      </c>
+      <c r="G99" s="8">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="7">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7">
+        <v>4</v>
+      </c>
+      <c r="G100" s="8">
+        <v>44941</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="7">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7">
+        <v>2</v>
+      </c>
+      <c r="G101" s="8">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="7">
+        <v>4</v>
+      </c>
+      <c r="F102" s="7">
+        <v>1</v>
+      </c>
+      <c r="G102" s="8">
+        <v>45290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="7">
+        <v>3</v>
+      </c>
+      <c r="F103" s="7">
+        <v>5</v>
+      </c>
+      <c r="G103" s="8">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E104" s="7">
+        <v>4</v>
+      </c>
+      <c r="F104" s="7">
+        <v>2</v>
+      </c>
+      <c r="G104" s="8">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" s="7">
+        <v>5</v>
+      </c>
+      <c r="F105" s="7">
+        <v>3</v>
+      </c>
+      <c r="G105" s="8">
+        <v>45332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="7">
+        <v>2</v>
+      </c>
+      <c r="F106" s="7">
+        <v>3</v>
+      </c>
+      <c r="G106" s="8">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E107" s="7">
+        <v>1</v>
+      </c>
+      <c r="F107" s="7">
+        <v>5</v>
+      </c>
+      <c r="G107" s="8">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="7">
+        <v>5</v>
+      </c>
+      <c r="F108" s="7">
+        <v>5</v>
+      </c>
+      <c r="G108" s="8">
+        <v>43746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" s="7">
+        <v>2</v>
+      </c>
+      <c r="F109" s="7">
+        <v>2</v>
+      </c>
+      <c r="G109" s="8">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="7">
+        <v>5</v>
+      </c>
+      <c r="F110" s="7">
+        <v>2</v>
+      </c>
+      <c r="G110" s="8">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="7">
+        <v>3</v>
+      </c>
+      <c r="F111" s="7">
+        <v>4</v>
+      </c>
+      <c r="G111" s="8">
+        <v>45157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1</v>
+      </c>
+      <c r="G112" s="8">
+        <v>43169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E113" s="7">
+        <v>2</v>
+      </c>
+      <c r="F113" s="7">
+        <v>5</v>
+      </c>
+      <c r="G113" s="8">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="7">
+        <v>4</v>
+      </c>
+      <c r="F114" s="7">
+        <v>5</v>
+      </c>
+      <c r="G114" s="8">
+        <v>44579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="7">
+        <v>3</v>
+      </c>
+      <c r="F115" s="7">
+        <v>5</v>
+      </c>
+      <c r="G115" s="8">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E116" s="7">
+        <v>1</v>
+      </c>
+      <c r="F116" s="7">
+        <v>5</v>
+      </c>
+      <c r="G116" s="8">
+        <v>45242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="7">
+        <v>3</v>
+      </c>
+      <c r="F117" s="7">
+        <v>3</v>
+      </c>
+      <c r="G117" s="8">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E118" s="7">
+        <v>3</v>
+      </c>
+      <c r="F118" s="7">
+        <v>2</v>
+      </c>
+      <c r="G118" s="8">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E119" s="7">
+        <v>2</v>
+      </c>
+      <c r="F119" s="7">
+        <v>3</v>
+      </c>
+      <c r="G119" s="8">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" s="7">
+        <v>5</v>
+      </c>
+      <c r="F120" s="7">
+        <v>2</v>
+      </c>
+      <c r="G120" s="8">
+        <v>45305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E121" s="7">
+        <v>2</v>
+      </c>
+      <c r="F121" s="7">
+        <v>2</v>
+      </c>
+      <c r="G121" s="8">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1</v>
+      </c>
+      <c r="F122" s="7">
+        <v>2</v>
+      </c>
+      <c r="G122" s="8">
+        <v>44933</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E123" s="7">
+        <v>4</v>
+      </c>
+      <c r="F123" s="7">
+        <v>4</v>
+      </c>
+      <c r="G123" s="8">
+        <v>43345</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="7">
+        <v>5</v>
+      </c>
+      <c r="F124" s="7">
+        <v>5</v>
+      </c>
+      <c r="G124" s="8">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E125" s="7">
+        <v>1</v>
+      </c>
+      <c r="F125" s="7">
+        <v>5</v>
+      </c>
+      <c r="G125" s="8">
+        <v>45426</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E126" s="7">
+        <v>3</v>
+      </c>
+      <c r="F126" s="7">
+        <v>1</v>
+      </c>
+      <c r="G126" s="8">
+        <v>43349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E127" s="7">
+        <v>4</v>
+      </c>
+      <c r="F127" s="7">
+        <v>4</v>
+      </c>
+      <c r="G127" s="8">
+        <v>45436</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1</v>
+      </c>
+      <c r="F128" s="7">
+        <v>4</v>
+      </c>
+      <c r="G128" s="8">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E129" s="7">
+        <v>4</v>
+      </c>
+      <c r="F129" s="7">
+        <v>5</v>
+      </c>
+      <c r="G129" s="8">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E130" s="7">
+        <v>2</v>
+      </c>
+      <c r="F130" s="7">
+        <v>4</v>
+      </c>
+      <c r="G130" s="8">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" s="7">
+        <v>4</v>
+      </c>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="8">
+        <v>44989</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E132" s="7">
+        <v>1</v>
+      </c>
+      <c r="F132" s="7">
+        <v>3</v>
+      </c>
+      <c r="G132" s="8">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E133" s="7">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7">
+        <v>4</v>
+      </c>
+      <c r="G133" s="8">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134" s="7">
+        <v>1</v>
+      </c>
+      <c r="F134" s="7">
+        <v>4</v>
+      </c>
+      <c r="G134" s="8">
+        <v>43415</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135" s="7">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7">
+        <v>2</v>
+      </c>
+      <c r="G135" s="8">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="7">
+        <v>2</v>
+      </c>
+      <c r="F136" s="7">
+        <v>5</v>
+      </c>
+      <c r="G136" s="8">
+        <v>44808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E137" s="7">
+        <v>5</v>
+      </c>
+      <c r="F137" s="7">
+        <v>4</v>
+      </c>
+      <c r="G137" s="8">
+        <v>43659</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E138" s="7">
+        <v>2</v>
+      </c>
+      <c r="F138" s="7">
+        <v>4</v>
+      </c>
+      <c r="G138" s="8">
+        <v>45241</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E139" s="7">
+        <v>1</v>
+      </c>
+      <c r="F139" s="7">
+        <v>4</v>
+      </c>
+      <c r="G139" s="8">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E140" s="7">
+        <v>2</v>
+      </c>
+      <c r="F140" s="7">
+        <v>4</v>
+      </c>
+      <c r="G140" s="8">
+        <v>43907</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" s="7">
+        <v>1</v>
+      </c>
+      <c r="F141" s="7">
+        <v>4</v>
+      </c>
+      <c r="G141" s="8">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E142" s="7">
+        <v>1</v>
+      </c>
+      <c r="F142" s="7">
+        <v>5</v>
+      </c>
+      <c r="G142" s="8">
+        <v>43181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E143" s="7">
+        <v>3</v>
+      </c>
+      <c r="F143" s="7">
+        <v>4</v>
+      </c>
+      <c r="G143" s="8">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="7">
+        <v>3</v>
+      </c>
+      <c r="F144" s="7">
+        <v>2</v>
+      </c>
+      <c r="G144" s="8">
+        <v>43943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E145" s="7">
+        <v>2</v>
+      </c>
+      <c r="F145" s="7">
+        <v>5</v>
+      </c>
+      <c r="G145" s="8">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E146" s="7">
+        <v>1</v>
+      </c>
+      <c r="F146" s="7">
+        <v>2</v>
+      </c>
+      <c r="G146" s="8">
+        <v>44391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E147" s="7">
+        <v>5</v>
+      </c>
+      <c r="F147" s="7">
+        <v>3</v>
+      </c>
+      <c r="G147" s="8">
+        <v>43124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E148" s="7">
+        <v>3</v>
+      </c>
+      <c r="F148" s="7">
+        <v>2</v>
+      </c>
+      <c r="G148" s="8">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149" s="7">
+        <v>1</v>
+      </c>
+      <c r="F149" s="7">
+        <v>3</v>
+      </c>
+      <c r="G149" s="8">
+        <v>45596</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E150" s="7">
+        <v>3</v>
+      </c>
+      <c r="F150" s="7">
+        <v>1</v>
+      </c>
+      <c r="G150" s="8">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E151" s="7">
+        <v>3</v>
+      </c>
+      <c r="F151" s="7">
+        <v>1</v>
+      </c>
+      <c r="G151" s="8">
+        <v>43067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>